--- a/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
+++ b/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422F991-AE1A-40E9-AA0D-5C987DBF39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578A674-706C-4041-945B-2984F2F558C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="4" r:id="rId1"/>
@@ -799,7 +799,7 @@
     <t>building_id</t>
   </si>
   <si>
-    <t>adres_id</t>
+    <t>address_id</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1318,11 +1318,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z1">
-      <sortCondition descending="1" ref="Q1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Z1" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
+++ b/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3578A674-706C-4041-945B-2984F2F558C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE30A9-EE07-49ED-B66D-144BFCF6959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="4" r:id="rId1"/>
@@ -733,9 +733,6 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>trafo_id</t>
-  </si>
-  <si>
     <t>energy_label</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>address_id</t>
+  </si>
+  <si>
+    <t>gridnode_id</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1239,73 +1239,73 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>2</v>

--- a/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
+++ b/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\LUX_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE30A9-EE07-49ED-B66D-144BFCF6959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD439EA4-242C-48A2-9D36-20BB0F48D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
+    <workbookView xWindow="39540" yWindow="1140" windowWidth="28800" windowHeight="15225" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="4" r:id="rId1"/>
@@ -757,9 +757,6 @@
     <t>polygon_area_m2</t>
   </si>
   <si>
-    <t>cumulative_floor_surface_m2</t>
-  </si>
-  <si>
     <t>purpose</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>gridnode_id</t>
+  </si>
+  <si>
+    <t>address_floor_surface_m2</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1239,46 +1239,46 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -1305,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>2</v>

--- a/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
+++ b/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\LUX_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD439EA4-242C-48A2-9D36-20BB0F48D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99510529-5A2C-4120-84AF-4EC5ADE37644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="1140" windowWidth="28800" windowHeight="15225" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">buildings!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">buildings!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,59 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{8FD37463-2538-4F43-9A08-542EFC2614E2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luc Sol:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-int (optional)
-number that increments for each unique building
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{DFF6C380-6841-41C9-8C3D-FA09512B7D3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luc Sol:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-int (optional)
-0 if the building is unique, else incrementing numbers for each group of non-unique buildings. i.e.
-The same building =&gt; the same number</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{63B43FE4-2DFE-458F-AA88-0AD3D1781F0B}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{63B43FE4-2DFE-458F-AA88-0AD3D1781F0B}">
       <text>
         <r>
           <rPr>
@@ -173,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{3D1D533C-5B41-43B7-9FCE-CE4797AADFC4}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{3D1D533C-5B41-43B7-9FCE-CE4797AADFC4}">
       <text>
         <r>
           <rPr>
@@ -200,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{9DB1F80B-7770-448F-B7C5-B95C6227531F}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{9DB1F80B-7770-448F-B7C5-B95C6227531F}">
       <text>
         <r>
           <rPr>
@@ -226,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{22E69195-E33A-46EC-B4A6-7699828DF447}">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{22E69195-E33A-46EC-B4A6-7699828DF447}">
       <text>
         <r>
           <rPr>
@@ -252,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{F1CF16E5-D70A-40ED-8B78-A5BC817F8BCC}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{F1CF16E5-D70A-40ED-8B78-A5BC817F8BCC}">
       <text>
         <r>
           <rPr>
@@ -278,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{1EAEF5C4-DB6F-463A-9305-C54F332EB207}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{1EAEF5C4-DB6F-463A-9305-C54F332EB207}">
       <text>
         <r>
           <rPr>
@@ -305,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{5A795051-8748-4EEF-851C-A7F6C88CA63B}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{5A795051-8748-4EEF-851C-A7F6C88CA63B}">
       <text>
         <r>
           <rPr>
@@ -331,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{0180DFDE-884B-49DC-AAAB-8EF8231D6AF7}">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{0180DFDE-884B-49DC-AAAB-8EF8231D6AF7}">
       <text>
         <r>
           <rPr>
@@ -356,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{DEB1C7F1-4305-4F7A-A3C4-2A9AFFA49F4B}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{DEB1C7F1-4305-4F7A-A3C4-2A9AFFA49F4B}">
       <text>
         <r>
           <rPr>
@@ -381,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{67A75FA9-0BD1-4CD7-B438-8099B3F91CFD}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{67A75FA9-0BD1-4CD7-B438-8099B3F91CFD}">
       <text>
         <r>
           <rPr>
@@ -410,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{A69ACB59-63D9-405D-B1E7-8C5FCD486732}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{A69ACB59-63D9-405D-B1E7-8C5FCD486732}">
       <text>
         <r>
           <rPr>
@@ -435,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{524DA785-47C5-4088-BB61-39BB2001FD08}">
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{524DA785-47C5-4088-BB61-39BB2001FD08}">
       <text>
         <r>
           <rPr>
@@ -463,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{C8777648-5A5B-4EBB-828A-593EF2D45AFE}">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{C8777648-5A5B-4EBB-828A-593EF2D45AFE}">
       <text>
         <r>
           <rPr>
@@ -489,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{819AAD6C-12F9-4998-BED6-422C1A07BFFC}">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{819AAD6C-12F9-4998-BED6-422C1A07BFFC}">
       <text>
         <r>
           <rPr>
@@ -515,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{C1656C3D-075F-46BD-BC2F-A2B624759EAD}">
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{C1656C3D-075F-46BD-BC2F-A2B624759EAD}">
       <text>
         <r>
           <rPr>
@@ -540,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{313BE7C2-A32D-4855-9081-1060871BCACE}">
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{313BE7C2-A32D-4855-9081-1060871BCACE}">
       <text>
         <r>
           <rPr>
@@ -565,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{FA84333F-E852-4BA6-ADC3-4C18ED3E848F}">
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{FA84333F-E852-4BA6-ADC3-4C18ED3E848F}">
       <text>
         <r>
           <rPr>
@@ -590,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{AD24B6AB-1158-43E8-842F-4D714C92F510}">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{AD24B6AB-1158-43E8-842F-4D714C92F510}">
       <text>
         <r>
           <rPr>
@@ -616,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{6FABADF5-9806-436F-81EC-5A02247424E9}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{6FABADF5-9806-436F-81EC-5A02247424E9}">
       <text>
         <r>
           <rPr>
@@ -642,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{D6946C39-BC7B-45E2-98F8-4E43651FB286}">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{D6946C39-BC7B-45E2-98F8-4E43651FB286}">
       <text>
         <r>
           <rPr>
@@ -667,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{EC4AD394-CB46-40F7-891D-56876710C581}">
+    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{EC4AD394-CB46-40F7-891D-56876710C581}">
       <text>
         <r>
           <rPr>
@@ -691,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{F61542DC-50BE-45B0-BDA5-41015EE1B282}">
+    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{F61542DC-50BE-45B0-BDA5-41015EE1B282}">
       <text>
         <r>
           <rPr>
@@ -722,7 +670,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>polygon</t>
   </si>
@@ -782,12 +730,6 @@
   </si>
   <si>
     <t>streetname</t>
-  </si>
-  <si>
-    <t>pandcluster_nr</t>
-  </si>
-  <si>
-    <t>pand_nr</t>
   </si>
   <si>
     <t>building_id</t>
@@ -1203,122 +1145,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="91.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="91.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}"/>
+  <autoFilter ref="A1:X1" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
+++ b/data_ProjectTemplate/Buildings_ProjectTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\LUX_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99510529-5A2C-4120-84AF-4EC5ADE37644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13149339-643D-44BF-BF53-D5A0B0256AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{99A50208-934F-4EDD-BF51-6D238E9C57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="4" r:id="rId1"/>
@@ -684,9 +684,6 @@
     <t>energy_label</t>
   </si>
   <si>
-    <t>gas_consumption_kwhpa</t>
-  </si>
-  <si>
     <t>electricity_consumption_kwhpa</t>
   </si>
   <si>
@@ -742,6 +739,9 @@
   </si>
   <si>
     <t>address_floor_surface_m2</t>
+  </si>
+  <si>
+    <t>gas_consumption_m3pa</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD9D70-6DEB-4390-947E-55D38CEBDCD5}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1170,7 +1170,7 @@
     <col min="16" max="16" width="91.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -1179,67 +1179,67 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
